--- a/data/full_data/lme.xlsx
+++ b/data/full_data/lme.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>CCP</t>
   </si>
@@ -104,19 +104,37 @@
     <t>LME</t>
   </si>
   <si>
+    <t>Q1-2017</t>
+  </si>
+  <si>
+    <t>aggregated</t>
+  </si>
+  <si>
     <t>Q2-2018</t>
   </si>
   <si>
-    <t>aggregated</t>
-  </si>
-  <si>
     <t>Q2-2017</t>
   </si>
   <si>
+    <t>Q4-2015</t>
+  </si>
+  <si>
     <t>Q3-2017</t>
   </si>
   <si>
     <t>Q4-2017</t>
+  </si>
+  <si>
+    <t>Q4-2016</t>
+  </si>
+  <si>
+    <t>Q3-2016</t>
+  </si>
+  <si>
+    <t>Q1-2016</t>
+  </si>
+  <si>
+    <t>Q2-2016</t>
   </si>
   <si>
     <t>Q1-2018</t>
@@ -468,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,30 +593,52 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s"/>
+      <c r="E2" t="n">
+        <v>17397811</v>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="H2" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="I2" t="n">
+        <v>548834610</v>
+      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="K2" t="n">
+        <v>17397811</v>
+      </c>
+      <c r="L2" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="M2" t="n">
+        <v>548834610</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34795622</v>
+      </c>
+      <c r="O2" t="n">
+        <v>509200227</v>
+      </c>
+      <c r="P2" t="n">
+        <v>259081311</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5934193975</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7968916977</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -606,16 +646,24 @@
       <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="s"/>
+      <c r="AA2" t="n">
+        <v>82842688084</v>
+      </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" t="s"/>
+      <c r="AC2" t="n">
+        <v>114722494001</v>
+      </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1" t="n">
@@ -630,52 +678,30 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="n">
-        <v>16298633</v>
-      </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="I3" t="n">
-        <v>501092411</v>
-      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>16298633</v>
-      </c>
-      <c r="L3" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="M3" t="n">
-        <v>501092411</v>
-      </c>
-      <c r="N3" t="n">
-        <v>32597266</v>
-      </c>
-      <c r="O3" t="n">
-        <v>477029410</v>
-      </c>
-      <c r="P3" t="n">
-        <v>320982927</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5106895151</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6769175857</v>
-      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -683,24 +709,16 @@
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA3" t="s"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC3" t="s"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="n">
@@ -716,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>15754700</v>
+        <v>16298633</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -725,46 +743,42 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="I4" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15754700</v>
+        <v>16298633</v>
       </c>
       <c r="L4" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="M4" t="n">
-        <v>798011046</v>
+        <v>501092411</v>
       </c>
       <c r="N4" t="n">
-        <v>31509401</v>
+        <v>32597266</v>
       </c>
       <c r="O4" t="n">
-        <v>792283546</v>
+        <v>477029410</v>
       </c>
       <c r="P4" t="n">
-        <v>434200314</v>
+        <v>320982927</v>
       </c>
       <c r="Q4" t="n">
-        <v>5249599242</v>
+        <v>5106895151</v>
       </c>
       <c r="R4" t="n">
-        <v>6951276444</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7554764555</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7813153479</v>
-      </c>
+        <v>6769175857</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -772,19 +786,23 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>89000892968</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>121172867607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -801,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>16926540</v>
+        <v>16900890</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -810,46 +828,42 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="I5" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16926540</v>
+        <v>16900890</v>
       </c>
       <c r="L5" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="M5" t="n">
-        <v>977920506</v>
+        <v>372537829</v>
       </c>
       <c r="N5" t="n">
-        <v>33853080</v>
+        <v>33801781</v>
       </c>
       <c r="O5" t="n">
-        <v>947811829</v>
+        <v>546495304</v>
       </c>
       <c r="P5" t="n">
-        <v>565042549</v>
+        <v>147885783</v>
       </c>
       <c r="Q5" t="n">
-        <v>10597688829</v>
+        <v>4752528609</v>
       </c>
       <c r="R5" t="n">
-        <v>13939495039</v>
-      </c>
-      <c r="S5" t="n">
-        <v>8928166624</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9240030043</v>
-      </c>
+        <v>6938905586</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -857,20 +871,16 @@
       <c r="W5" t="n">
         <v>0</v>
       </c>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>92396036206</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>131597503448</v>
-      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s"/>
+      <c r="AA5" t="s"/>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1" t="n">
@@ -886,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>16475934</v>
+        <v>15754700</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -895,43 +905,43 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="I6" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16475934</v>
+        <v>15754700</v>
       </c>
       <c r="L6" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="M6" t="n">
-        <v>1148619746</v>
+        <v>798011046</v>
       </c>
       <c r="N6" t="n">
-        <v>32951870</v>
+        <v>31509401</v>
       </c>
       <c r="O6" t="n">
-        <v>1042402527</v>
+        <v>792283546</v>
       </c>
       <c r="P6" t="n">
-        <v>668839783</v>
+        <v>434200314</v>
       </c>
       <c r="Q6" t="n">
-        <v>8875774272</v>
+        <v>5249599242</v>
       </c>
       <c r="R6" t="n">
-        <v>11877261285</v>
+        <v>6951276444</v>
       </c>
       <c r="S6" t="n">
-        <v>6810341011</v>
+        <v>7554764555</v>
       </c>
       <c r="T6" t="n">
-        <v>7043135994</v>
+        <v>7813153479</v>
       </c>
       <c r="U6" t="n">
         <v>55</v>
@@ -948,12 +958,514 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
+        <v>89000892968</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>121172867607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16926540</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>977920506</v>
+      </c>
+      <c r="I7" t="n">
+        <v>977920506</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16926540</v>
+      </c>
+      <c r="L7" t="n">
+        <v>977920506</v>
+      </c>
+      <c r="M7" t="n">
+        <v>977920506</v>
+      </c>
+      <c r="N7" t="n">
+        <v>33853080</v>
+      </c>
+      <c r="O7" t="n">
+        <v>947811829</v>
+      </c>
+      <c r="P7" t="n">
+        <v>565042549</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10597688829</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13939495039</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8928166624</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9240030043</v>
+      </c>
+      <c r="U7" t="n">
+        <v>55</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>92396036206</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>131597503448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17645384</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>551485845</v>
+      </c>
+      <c r="I8" t="n">
+        <v>551485845</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17645384</v>
+      </c>
+      <c r="L8" t="n">
+        <v>551485845</v>
+      </c>
+      <c r="M8" t="n">
+        <v>551485845</v>
+      </c>
+      <c r="N8" t="n">
+        <v>35290769</v>
+      </c>
+      <c r="O8" t="n">
+        <v>516446222</v>
+      </c>
+      <c r="P8" t="n">
+        <v>164432948</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6163464010</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8415735615</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>82609454875</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>116134430820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16485977</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>365120597</v>
+      </c>
+      <c r="I9" t="n">
+        <v>365120597</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16485977</v>
+      </c>
+      <c r="L9" t="n">
+        <v>365120597</v>
+      </c>
+      <c r="M9" t="n">
+        <v>365120597</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32971955</v>
+      </c>
+      <c r="O9" t="n">
+        <v>301324811</v>
+      </c>
+      <c r="P9" t="n">
+        <v>78399071</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5319094853</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7036339113</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>65415159603</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>104909491918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16161616</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>357096210</v>
+      </c>
+      <c r="I10" t="n">
+        <v>357096210</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16161616</v>
+      </c>
+      <c r="L10" t="n">
+        <v>357096210</v>
+      </c>
+      <c r="M10" t="n">
+        <v>357096210</v>
+      </c>
+      <c r="N10" t="n">
+        <v>32323232</v>
+      </c>
+      <c r="O10" t="n">
+        <v>522590635</v>
+      </c>
+      <c r="P10" t="n">
+        <v>97209359</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3264109832</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6926202563</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>64641647449</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>90777407285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16573590</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>366999353</v>
+      </c>
+      <c r="I11" t="n">
+        <v>366999353</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16573590</v>
+      </c>
+      <c r="L11" t="n">
+        <v>366999353</v>
+      </c>
+      <c r="M11" t="n">
+        <v>366999353</v>
+      </c>
+      <c r="N11" t="n">
+        <v>33147180</v>
+      </c>
+      <c r="O11" t="n">
+        <v>153584007</v>
+      </c>
+      <c r="P11" t="n">
+        <v>45943264</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4732106415</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6636147149</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s"/>
+      <c r="AA11" t="s"/>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16475934</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1148619746</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1148619746</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16475934</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1148619746</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1148619746</v>
+      </c>
+      <c r="N12" t="n">
+        <v>32951870</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1042402527</v>
+      </c>
+      <c r="P12" t="n">
+        <v>668839783</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8875774272</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11877261285</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6810341011</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7043135994</v>
+      </c>
+      <c r="U12" t="n">
+        <v>55</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>110468864329</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>113296053427</v>
       </c>
     </row>
